--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Inha-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Inha-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Inha</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,40 +540,40 @@
         <v>0.48706</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2351552968361266</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2351552968361266</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>19.86261233333333</v>
+        <v>13.10121233333333</v>
       </c>
       <c r="N2">
-        <v>59.58783700000001</v>
+        <v>39.303637</v>
       </c>
       <c r="O2">
-        <v>0.1710751304955294</v>
+        <v>0.1081423012186565</v>
       </c>
       <c r="P2">
-        <v>0.1710751304955294</v>
+        <v>0.1081423012186565</v>
       </c>
       <c r="Q2">
-        <v>3.224761321024445</v>
+        <v>2.127025493024445</v>
       </c>
       <c r="R2">
-        <v>29.02285188922001</v>
+        <v>19.14322943722</v>
       </c>
       <c r="S2">
-        <v>0.1710751304955294</v>
+        <v>0.02543023494361497</v>
       </c>
       <c r="T2">
-        <v>0.1710751304955294</v>
+        <v>0.02543023494361498</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -602,10 +602,10 @@
         <v>0.48706</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2351552968361266</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2351552968361266</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>209.032433</v>
       </c>
       <c r="O3">
-        <v>0.6001266794307873</v>
+        <v>0.5751439322003361</v>
       </c>
       <c r="P3">
-        <v>0.6001266794307872</v>
+        <v>0.5751439322003362</v>
       </c>
       <c r="Q3">
         <v>11.31237075744222</v>
@@ -632,10 +632,10 @@
         <v>101.81133681698</v>
       </c>
       <c r="S3">
-        <v>0.6001266794307873</v>
+        <v>0.1352481421000671</v>
       </c>
       <c r="T3">
-        <v>0.6001266794307872</v>
+        <v>0.1352481421000671</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,10 +664,10 @@
         <v>0.48706</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2351552968361266</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2351552968361266</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,214 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.564526</v>
+        <v>38.36920666666666</v>
       </c>
       <c r="N4">
-        <v>79.693578</v>
+        <v>115.10762</v>
       </c>
       <c r="O4">
-        <v>0.2287981900736832</v>
+        <v>0.3167137665810073</v>
       </c>
       <c r="P4">
-        <v>0.2287981900736832</v>
+        <v>0.3167137665810074</v>
       </c>
       <c r="Q4">
-        <v>4.31283934452</v>
+        <v>6.229368599688888</v>
       </c>
       <c r="R4">
-        <v>38.81555410068</v>
+        <v>56.0643173972</v>
       </c>
       <c r="S4">
-        <v>0.2287981900736832</v>
+        <v>0.07447691979244447</v>
       </c>
       <c r="T4">
-        <v>0.2287981900736832</v>
+        <v>0.07447691979244452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.5280556666666667</v>
+      </c>
+      <c r="H5">
+        <v>1.584167</v>
+      </c>
+      <c r="I5">
+        <v>0.7648447031638734</v>
+      </c>
+      <c r="J5">
+        <v>0.7648447031638734</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>13.10121233333333</v>
+      </c>
+      <c r="N5">
+        <v>39.303637</v>
+      </c>
+      <c r="O5">
+        <v>0.1081423012186565</v>
+      </c>
+      <c r="P5">
+        <v>0.1081423012186565</v>
+      </c>
+      <c r="Q5">
+        <v>6.91816941281989</v>
+      </c>
+      <c r="R5">
+        <v>62.26352471537901</v>
+      </c>
+      <c r="S5">
+        <v>0.08271206627504149</v>
+      </c>
+      <c r="T5">
+        <v>0.0827120662750415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.5280556666666667</v>
+      </c>
+      <c r="H6">
+        <v>1.584167</v>
+      </c>
+      <c r="I6">
+        <v>0.7648447031638734</v>
+      </c>
+      <c r="J6">
+        <v>0.7648447031638734</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>69.67747766666666</v>
+      </c>
+      <c r="N6">
+        <v>209.032433</v>
+      </c>
+      <c r="O6">
+        <v>0.5751439322003361</v>
+      </c>
+      <c r="P6">
+        <v>0.5751439322003362</v>
+      </c>
+      <c r="Q6">
+        <v>36.79358692092345</v>
+      </c>
+      <c r="R6">
+        <v>331.142282288311</v>
+      </c>
+      <c r="S6">
+        <v>0.439895790100269</v>
+      </c>
+      <c r="T6">
+        <v>0.4398957901002691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.5280556666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.584167</v>
+      </c>
+      <c r="I7">
+        <v>0.7648447031638734</v>
+      </c>
+      <c r="J7">
+        <v>0.7648447031638734</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>38.36920666666666</v>
+      </c>
+      <c r="N7">
+        <v>115.10762</v>
+      </c>
+      <c r="O7">
+        <v>0.3167137665810073</v>
+      </c>
+      <c r="P7">
+        <v>0.3167137665810074</v>
+      </c>
+      <c r="Q7">
+        <v>20.26107700583778</v>
+      </c>
+      <c r="R7">
+        <v>182.34969305254</v>
+      </c>
+      <c r="S7">
+        <v>0.2422368467885628</v>
+      </c>
+      <c r="T7">
+        <v>0.2422368467885629</v>
       </c>
     </row>
   </sheetData>
